--- a/biology/Zoologie/Bolitoglossa_occidentalis/Bolitoglossa_occidentalis.xlsx
+++ b/biology/Zoologie/Bolitoglossa_occidentalis/Bolitoglossa_occidentalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa occidentalis est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa occidentalis est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre du niveau de la mer à 2 000 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre du niveau de la mer à 2 000 m d'altitude :
 au Mexique dans l'extrême Est de l'État d'Oaxaca et au Chiapas ;
 au Guatemala ;
 au Honduras ou la seule observation est un spécimen collecté à Comayagua en 1951.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 31 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 31 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa bilineata[3] a été placée en synonymie avec Bolitoglossa occidentalis par Wake et Brame en 1969[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa bilineata a été placée en synonymie avec Bolitoglossa occidentalis par Wake et Brame en 1969.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Taylor, 1941 : New amphibians from the Hobart M. Smith Mexican collections. University of Kansas Science Bulletin, vol. 27, no 1, p. 141-167 (texte intégral).</t>
         </is>
